--- a/doc/甘特圖.xlsx
+++ b/doc/甘特圖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\OneDrive\桌面\turbo-turret\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FFBFE3-F406-45AF-A104-8856675947B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD4CE23-80A4-4098-B4F2-3485B0F47370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>建模完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轉向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影像處理與結果輸出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,11 +115,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俯仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>馬達控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊發控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊發測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合測試</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,19 +180,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -186,8 +207,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,19 +228,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1222,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="A16:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1323,166 +1374,439 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>45012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45026</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45033</v>
+      </c>
+      <c r="G17" s="1">
         <v>45040</v>
       </c>
-      <c r="D16" s="7">
+      <c r="H17" s="1">
         <v>45047</v>
       </c>
-      <c r="E16" s="7">
+      <c r="I17" s="1">
         <v>45054</v>
       </c>
-      <c r="F16" s="7">
+      <c r="J17" s="1">
         <v>45061</v>
       </c>
-      <c r="G16" s="7">
+      <c r="K17" s="1">
         <v>45068</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
